--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
@@ -543,10 +543,10 @@
         <v>0.18062</v>
       </c>
       <c r="I2">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="J2">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N2">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q2">
-        <v>0.2268081865377778</v>
+        <v>0.3006218408355555</v>
       </c>
       <c r="R2">
-        <v>2.04127367884</v>
+        <v>2.70559656752</v>
       </c>
       <c r="S2">
-        <v>0.03572920579028541</v>
+        <v>0.04880299194218968</v>
       </c>
       <c r="T2">
-        <v>0.03572920579028541</v>
+        <v>0.04880299194218968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.18062</v>
       </c>
       <c r="I3">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="J3">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>118.340805</v>
       </c>
       <c r="O3">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P3">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q3">
         <v>2.374968466566667</v>
@@ -635,10 +635,10 @@
         <v>21.3747161991</v>
       </c>
       <c r="S3">
-        <v>0.3741299570474949</v>
+        <v>0.385552715047772</v>
       </c>
       <c r="T3">
-        <v>0.3741299570474948</v>
+        <v>0.385552715047772</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.18062</v>
       </c>
       <c r="I4">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="J4">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N4">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q4">
-        <v>1.585452517562222</v>
+        <v>1.750940013411111</v>
       </c>
       <c r="R4">
-        <v>14.26907265806</v>
+        <v>15.7584601207</v>
       </c>
       <c r="S4">
-        <v>0.2497571191561529</v>
+        <v>0.2842478481545288</v>
       </c>
       <c r="T4">
-        <v>0.2497571191561529</v>
+        <v>0.2842478481545289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>0.18062</v>
       </c>
       <c r="I5">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="J5">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N5">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q5">
-        <v>0.07038655034888887</v>
+        <v>0.007879186260000001</v>
       </c>
       <c r="R5">
-        <v>0.6334789531399999</v>
+        <v>0.07091267634000001</v>
       </c>
       <c r="S5">
-        <v>0.01108802808519813</v>
+        <v>0.001279108206140398</v>
       </c>
       <c r="T5">
-        <v>0.01108802808519813</v>
+        <v>0.001279108206140398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02955966666666667</v>
+        <v>0.02342733333333333</v>
       </c>
       <c r="H6">
-        <v>0.08867900000000001</v>
+        <v>0.070282</v>
       </c>
       <c r="I6">
-        <v>0.3292956899208686</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="J6">
-        <v>0.3292956899208687</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N6">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O6">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P6">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q6">
-        <v>0.1113560135864445</v>
+        <v>0.1169765486524444</v>
       </c>
       <c r="R6">
-        <v>1.002204122278</v>
+        <v>1.052788937872</v>
       </c>
       <c r="S6">
-        <v>0.01754196788991651</v>
+        <v>0.01898998936818168</v>
       </c>
       <c r="T6">
-        <v>0.01754196788991651</v>
+        <v>0.01898998936818168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02955966666666667</v>
+        <v>0.02342733333333333</v>
       </c>
       <c r="H7">
-        <v>0.08867900000000001</v>
+        <v>0.070282</v>
       </c>
       <c r="I7">
-        <v>0.3292956899208686</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="J7">
-        <v>0.3292956899208687</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>118.340805</v>
       </c>
       <c r="O7">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P7">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q7">
-        <v>1.166038249621667</v>
+        <v>0.9241364952233333</v>
       </c>
       <c r="R7">
-        <v>10.494344246595</v>
+        <v>8.31722845701</v>
       </c>
       <c r="S7">
-        <v>0.1836865821116975</v>
+        <v>0.1500244486711743</v>
       </c>
       <c r="T7">
-        <v>0.1836865821116975</v>
+        <v>0.1500244486711743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02955966666666667</v>
+        <v>0.02342733333333333</v>
       </c>
       <c r="H8">
-        <v>0.08867900000000001</v>
+        <v>0.070282</v>
       </c>
       <c r="I8">
-        <v>0.3292956899208686</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="J8">
-        <v>0.3292956899208687</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N8">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O8">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P8">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q8">
-        <v>0.7784096102585556</v>
+        <v>0.6813174954188888</v>
       </c>
       <c r="R8">
-        <v>7.005686492327</v>
+        <v>6.131857458769999</v>
       </c>
       <c r="S8">
-        <v>0.1226232508562091</v>
+        <v>0.1106051780754988</v>
       </c>
       <c r="T8">
-        <v>0.1226232508562091</v>
+        <v>0.1106051780754988</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>25</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02342733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.070282</v>
+      </c>
+      <c r="I9">
+        <v>0.2801173366493691</v>
+      </c>
+      <c r="J9">
+        <v>0.2801173366493691</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.02955966666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.08867900000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.3292956899208686</v>
-      </c>
-      <c r="J9">
-        <v>0.3292956899208687</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N9">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O9">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P9">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q9">
-        <v>0.03455768407922222</v>
+        <v>0.003065911686</v>
       </c>
       <c r="R9">
-        <v>0.311019156713</v>
+        <v>0.027593205174</v>
       </c>
       <c r="S9">
-        <v>0.005443889063045536</v>
+        <v>0.0004977205345142256</v>
       </c>
       <c r="T9">
-        <v>0.005443889063045537</v>
+        <v>0.0004977205345142256</v>
       </c>
     </row>
   </sheetData>
